--- a/INTLINE/data/134/WSA/WSA.xlsx
+++ b/INTLINE/data/134/WSA/WSA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGK2"/>
+  <dimension ref="A1:AGL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4699,15 +4699,20 @@
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AGJ1" s="1" t="inlineStr">
+      <c r="AGK1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AGK1" s="1" t="inlineStr">
+      <c r="AGL1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -7282,7 +7287,7 @@
         <v>3097.221</v>
       </c>
       <c r="AFX2" t="n">
-        <v>3775</v>
+        <v>3774.149</v>
       </c>
       <c r="AFY2" t="n">
         <v>3360.891</v>
@@ -7314,17 +7319,20 @@
       <c r="AGH2" t="n">
         <v>3258.763</v>
       </c>
-      <c r="AGI2" t="inlineStr">
+      <c r="AGI2" t="n">
+        <v>3214.67</v>
+      </c>
+      <c r="AGJ2" t="inlineStr">
         <is>
           <t>IPST0001</t>
         </is>
       </c>
-      <c r="AGJ2" t="inlineStr">
+      <c r="AGK2" t="inlineStr">
         <is>
           <t>Production of Crude Steel</t>
         </is>
       </c>
-      <c r="AGK2" t="inlineStr">
+      <c r="AGL2" t="inlineStr">
         <is>
           <t>Thousands of Metric Tons</t>
         </is>

--- a/INTLINE/data/134/WSA/WSA.xlsx
+++ b/INTLINE/data/134/WSA/WSA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="875">
   <si>
     <t>1950-01</t>
   </si>
@@ -2615,6 +2615,9 @@
   </si>
   <si>
     <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
   </si>
   <si>
     <t>Index</t>
@@ -2993,15 +2996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AGM2"/>
+  <dimension ref="A1:AGN2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:871">
+    <row r="1" spans="1:872">
       <c r="A1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5613,10 +5616,13 @@
       <c r="AGM1" s="1" t="s">
         <v>869</v>
       </c>
+      <c r="AGN1" s="1" t="s">
+        <v>870</v>
+      </c>
     </row>
-    <row r="2" spans="1:871">
+    <row r="2" spans="1:872">
       <c r="A2" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B2">
         <v>916</v>
@@ -8219,14 +8225,17 @@
       <c r="AGJ2">
         <v>3327.497</v>
       </c>
-      <c r="AGK2" t="s">
-        <v>871</v>
+      <c r="AGK2">
+        <v>3324.696</v>
       </c>
       <c r="AGL2" t="s">
         <v>872</v>
       </c>
       <c r="AGM2" t="s">
         <v>873</v>
+      </c>
+      <c r="AGN2" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
